--- a/data/trans_dic/P2C_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,49; 32,17</t>
+          <t>21,34; 32,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,61; 31,66</t>
+          <t>20,8; 31,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,87; 9,33</t>
+          <t>3,82; 9,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>34,2; 46,88</t>
+          <t>34,78; 47,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,38; 41,11</t>
+          <t>30,01; 40,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,4; 11,47</t>
+          <t>6,5; 11,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,32; 37,87</t>
+          <t>29,64; 38,22</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>26,87; 34,44</t>
+          <t>26,78; 34,51</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,92; 9,54</t>
+          <t>5,92; 9,62</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,54; 18,11</t>
+          <t>11,72; 18,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,89; 29,55</t>
+          <t>22,24; 29,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,1; 23,01</t>
+          <t>15,7; 22,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,17; 14,8</t>
+          <t>8,33; 14,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,73; 31,69</t>
+          <t>23,76; 31,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,63; 44,93</t>
+          <t>36,77; 45,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,01; 33,62</t>
+          <t>25,72; 33,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,79; 23,35</t>
+          <t>16,94; 23,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,67; 23,78</t>
+          <t>18,89; 23,89</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>30,27; 36,41</t>
+          <t>30,37; 36,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21,92; 27,48</t>
+          <t>21,93; 27,38</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,75; 18,08</t>
+          <t>13,53; 18,18</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,7; 27,44</t>
+          <t>17,93; 27,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24,81; 35,32</t>
+          <t>25,03; 34,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,0; 24,53</t>
+          <t>16,35; 24,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,04; 16,44</t>
+          <t>9,15; 16,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,6; 36,53</t>
+          <t>26,61; 36,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>35,6; 46,73</t>
+          <t>35,63; 46,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,44; 30,51</t>
+          <t>21,45; 30,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,99; 17,38</t>
+          <t>10,85; 16,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>23,68; 30,84</t>
+          <t>23,77; 30,89</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>31,88; 39,22</t>
+          <t>31,78; 39,26</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>20,33; 26,78</t>
+          <t>19,9; 26,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,69; 15,25</t>
+          <t>10,85; 15,56</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,95; 29,16</t>
+          <t>20,33; 28,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,81; 34,13</t>
+          <t>26,86; 34,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,89; 20,6</t>
+          <t>12,85; 21,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,87; 21,25</t>
+          <t>11,33; 21,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,09; 36,55</t>
+          <t>27,53; 37,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>43,53; 51,55</t>
+          <t>43,6; 51,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,25; 37,2</t>
+          <t>26,56; 36,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,59; 19,75</t>
+          <t>12,48; 19,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,34; 31,81</t>
+          <t>24,96; 31,33</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>36,22; 41,85</t>
+          <t>36,51; 42,02</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>20,87; 27,27</t>
+          <t>20,96; 27,32</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,21; 18,96</t>
+          <t>12,96; 18,83</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,01; 21,98</t>
+          <t>11,16; 21,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,69; 32,89</t>
+          <t>20,22; 32,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,07; 43,59</t>
+          <t>30,72; 44,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,13; 15,12</t>
+          <t>7,62; 15,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,16; 32,75</t>
+          <t>20,32; 32,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>36,02; 49,06</t>
+          <t>36,3; 50,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,15; 46,67</t>
+          <t>33,44; 46,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,1; 13,73</t>
+          <t>7,07; 13,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,69; 24,93</t>
+          <t>17,15; 24,88</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>30,09; 39,54</t>
+          <t>29,7; 38,7</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>33,89; 42,66</t>
+          <t>33,96; 42,76</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,0; 13,39</t>
+          <t>8,15; 13,58</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,25; 28,71</t>
+          <t>18,91; 28,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,84; 36,08</t>
+          <t>24,72; 35,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,92; 29,88</t>
+          <t>19,71; 30,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,49; 22,48</t>
+          <t>14,29; 22,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,29; 30,51</t>
+          <t>20,1; 30,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>34,32; 45,86</t>
+          <t>34,25; 45,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,9; 31,61</t>
+          <t>21,0; 31,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>19,84; 28,01</t>
+          <t>19,62; 28,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,68; 28,01</t>
+          <t>21,26; 28,19</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>31,22; 39,43</t>
+          <t>30,94; 39,65</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>21,68; 29,19</t>
+          <t>21,45; 29,37</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>17,93; 23,87</t>
+          <t>18,0; 23,81</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,48; 21,91</t>
+          <t>15,52; 21,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>29,55; 37,07</t>
+          <t>29,24; 37,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,34; 24,22</t>
+          <t>17,53; 24,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,64; 7,56</t>
+          <t>3,65; 7,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>31,14; 39,16</t>
+          <t>31,36; 38,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>36,73; 44,56</t>
+          <t>37,28; 45,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,36; 34,55</t>
+          <t>27,45; 34,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,01; 51,6</t>
+          <t>6,81; 51,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>24,36; 29,38</t>
+          <t>24,51; 29,46</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>34,59; 39,83</t>
+          <t>34,73; 39,98</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>23,49; 28,35</t>
+          <t>23,68; 28,39</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,11; 34,48</t>
+          <t>6,13; 36,22</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>17,06; 23,06</t>
+          <t>16,91; 22,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>24,04; 30,68</t>
+          <t>23,97; 30,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>26,7; 33,14</t>
+          <t>26,62; 33,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16,99; 24,94</t>
+          <t>16,95; 25,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>23,5; 30,05</t>
+          <t>23,46; 30,05</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>39,96; 47,62</t>
+          <t>40,28; 47,55</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>37,66; 44,55</t>
+          <t>38,0; 44,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>28,68; 34,59</t>
+          <t>28,62; 34,61</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>20,83; 25,44</t>
+          <t>20,93; 25,28</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>33,15; 38,07</t>
+          <t>33,37; 38,19</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>33,42; 38,18</t>
+          <t>33,33; 38,19</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>23,88; 29,01</t>
+          <t>23,41; 29,03</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>18,77; 21,46</t>
+          <t>18,87; 21,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>27,69; 31,09</t>
+          <t>27,48; 30,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>22,37; 25,33</t>
+          <t>22,36; 25,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>12,18; 14,84</t>
+          <t>12,06; 14,73</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>28,72; 31,98</t>
+          <t>28,81; 32,01</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>41,4; 44,71</t>
+          <t>41,18; 44,5</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>31,61; 34,84</t>
+          <t>31,58; 34,86</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>17,66; 28,17</t>
+          <t>17,64; 29,35</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>24,26; 26,53</t>
+          <t>24,38; 26,51</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>35,11; 37,38</t>
+          <t>35,01; 37,3</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>27,49; 29,83</t>
+          <t>27,65; 29,89</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>15,54; 21,46</t>
+          <t>15,52; 22,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2C_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,34; 32,78</t>
+          <t>21,8; 32,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,8; 31,29</t>
+          <t>21,15; 31,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>34,78; 47,08</t>
+          <t>34,18; 47,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,01; 40,96</t>
+          <t>29,84; 40,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,64; 38,22</t>
+          <t>29,42; 37,88</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>26,78; 34,51</t>
+          <t>26,78; 34,47</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,72; 18,53</t>
+          <t>11,59; 18,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,24; 29,79</t>
+          <t>22,22; 29,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,7; 22,91</t>
+          <t>15,85; 23,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,76; 31,48</t>
+          <t>24,06; 31,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,77; 45,34</t>
+          <t>36,21; 45,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,72; 33,74</t>
+          <t>25,89; 33,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,89; 23,89</t>
+          <t>18,48; 23,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>30,37; 36,38</t>
+          <t>30,25; 36,43</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21,93; 27,38</t>
+          <t>22,01; 27,27</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,93; 27,8</t>
+          <t>17,85; 27,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,03; 34,9</t>
+          <t>24,93; 34,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,35; 24,93</t>
+          <t>16,07; 24,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,61; 36,37</t>
+          <t>26,46; 35,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>35,63; 46,61</t>
+          <t>35,61; 46,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,45; 30,89</t>
+          <t>21,55; 30,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>23,77; 30,89</t>
+          <t>23,75; 30,81</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>31,78; 39,26</t>
+          <t>31,65; 39,42</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>19,9; 26,47</t>
+          <t>20,16; 26,52</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,33; 28,87</t>
+          <t>20,46; 29,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,86; 34,23</t>
+          <t>26,78; 34,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,85; 21,14</t>
+          <t>13,04; 21,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,53; 37,33</t>
+          <t>27,19; 36,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>43,6; 51,69</t>
+          <t>43,33; 51,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,56; 36,43</t>
+          <t>26,65; 36,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,96; 31,33</t>
+          <t>25,02; 31,66</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>36,51; 42,02</t>
+          <t>36,26; 41,87</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>20,96; 27,32</t>
+          <t>20,97; 27,49</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,16; 21,16</t>
+          <t>11,19; 21,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,22; 32,65</t>
+          <t>20,18; 32,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,72; 44,02</t>
+          <t>30,48; 43,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,32; 32,49</t>
+          <t>20,34; 32,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>36,3; 50,01</t>
+          <t>36,38; 49,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,44; 46,23</t>
+          <t>33,75; 46,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,15; 24,88</t>
+          <t>17,0; 25,5</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>29,7; 38,7</t>
+          <t>29,62; 38,98</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>33,96; 42,76</t>
+          <t>34,07; 43,09</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,91; 28,96</t>
+          <t>18,76; 29,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,72; 35,75</t>
+          <t>24,74; 35,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,71; 30,32</t>
+          <t>19,68; 29,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,1; 30,4</t>
+          <t>20,15; 30,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>34,25; 45,97</t>
+          <t>33,78; 46,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,0; 31,81</t>
+          <t>21,16; 31,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,26; 28,19</t>
+          <t>20,93; 28,0</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>30,94; 39,65</t>
+          <t>31,09; 39,39</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>21,45; 29,37</t>
+          <t>21,65; 28,89</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,52; 21,92</t>
+          <t>15,48; 21,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>29,24; 37,15</t>
+          <t>29,51; 37,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,53; 24,28</t>
+          <t>17,38; 24,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>31,36; 38,93</t>
+          <t>31,27; 38,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>37,28; 45,15</t>
+          <t>37,53; 45,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,45; 34,76</t>
+          <t>27,71; 34,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>24,51; 29,46</t>
+          <t>24,54; 29,56</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>34,73; 39,98</t>
+          <t>34,52; 40,26</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>23,68; 28,39</t>
+          <t>23,5; 28,33</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,91; 22,98</t>
+          <t>16,71; 22,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>23,97; 30,59</t>
+          <t>24,15; 30,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>26,62; 33,08</t>
+          <t>26,48; 33,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>23,46; 30,05</t>
+          <t>23,55; 30,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>40,28; 47,55</t>
+          <t>40,51; 47,09</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>38,0; 44,58</t>
+          <t>37,38; 44,57</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>20,93; 25,28</t>
+          <t>20,95; 25,57</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>33,37; 38,19</t>
+          <t>33,16; 38,37</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>33,33; 38,19</t>
+          <t>33,24; 38,15</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>18,87; 21,71</t>
+          <t>18,83; 21,65</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>27,48; 30,75</t>
+          <t>27,65; 30,87</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>22,36; 25,43</t>
+          <t>22,25; 25,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>28,81; 32,01</t>
+          <t>28,74; 31,91</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>41,18; 44,5</t>
+          <t>41,09; 44,64</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>31,58; 34,86</t>
+          <t>31,76; 35,07</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>24,38; 26,51</t>
+          <t>24,32; 26,43</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>35,01; 37,3</t>
+          <t>34,98; 37,33</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>27,65; 29,89</t>
+          <t>27,51; 29,81</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/P2C_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales)</t>
+          <t>Hogares con al menos un miembro que requiere cuidados habituales por la persona entrevistada</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>26,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>25,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>40,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>35,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>33,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>30,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,8; 32,98</t>
+          <t>0; 1,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,15; 31,91</t>
+          <t>0; 1,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,82; 9,19</t>
+          <t>0; 0,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>34,18; 47,19</t>
+          <t>0; 1,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,84; 40,91</t>
+          <t>0; 0,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,5; 11,5</t>
+          <t>0; 0,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,42; 37,88</t>
+          <t>0; 0,63</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>26,78; 34,47</t>
+          <t>0; 0,55</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,92; 9,62</t>
+          <t>0; 0,22</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>25,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>27,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>40,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>29,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>21,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>33,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>24,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,59; 18,34</t>
+          <t>0; 0,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,22; 29,72</t>
+          <t>0; 0,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,85; 23,17</t>
+          <t>0; 0,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,33; 14,74</t>
+          <t>0; 0,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,06; 31,78</t>
+          <t>0; 0,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,21; 45,35</t>
+          <t>0; 0,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,89; 33,83</t>
+          <t>0; 0,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,94; 23,01</t>
+          <t>0; 0,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,48; 23,61</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>30,25; 36,43</t>
+          <t>0; 0,3</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>22,01; 27,27</t>
+          <t>0; 0,35</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,53; 18,18</t>
+          <t>0; 0,17</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>22,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>29,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>31,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>40,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>27,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>35,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,85; 27,78</t>
+          <t>0; 1,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24,93; 34,96</t>
+          <t>0; 0,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,07; 24,79</t>
+          <t>0; 0,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,15; 16,47</t>
+          <t>0; 0,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,46; 35,92</t>
+          <t>0; 0,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>35,61; 46,29</t>
+          <t>0; 0,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,55; 30,74</t>
+          <t>0; 0,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,85; 16,86</t>
+          <t>0; 0,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>23,75; 30,81</t>
+          <t>0; 0,47</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>31,65; 39,42</t>
+          <t>0; 0,46</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>20,16; 26,52</t>
+          <t>0; 0,48</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,85; 15,56</t>
+          <t>0; 0,21</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>24,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>30,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>31,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>47,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>31,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>28,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>39,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>24,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,46; 29,21</t>
+          <t>0; 0,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,78; 34,21</t>
+          <t>0; 0,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,04; 21,29</t>
+          <t>0; 1,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,33; 21,7</t>
+          <t>0; 0,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,19; 36,74</t>
+          <t>0; 0,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>43,33; 51,3</t>
+          <t>0; 0,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,65; 36,13</t>
+          <t>0; 0,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,48; 19,33</t>
+          <t>0; 0,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,02; 31,66</t>
+          <t>0; 0,42</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>36,26; 41,87</t>
+          <t>0; 0,22</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>20,97; 27,49</t>
+          <t>0; 0,45</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,96; 18,83</t>
+          <t>0; 0,22</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>26,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>36,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>25,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>42,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>39,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>20,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>34,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>38,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,19; 21,51</t>
+          <t>0; 1,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,18; 32,84</t>
+          <t>0; 1,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,48; 43,7</t>
+          <t>0; 1,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,62; 15,81</t>
+          <t>0; 0,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,34; 32,31</t>
+          <t>0; 1,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>36,38; 49,43</t>
+          <t>0; 1,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,75; 46,37</t>
+          <t>0; 1,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,07; 13,79</t>
+          <t>0; 0,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,0; 25,5</t>
+          <t>0; 0,75</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>29,62; 38,98</t>
+          <t>0; 0,66</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>34,07; 43,09</t>
+          <t>0; 0,68</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,15; 13,58</t>
+          <t>0; 0,25</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>30,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>25,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>40,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>26,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>23,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>24,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>35,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>25,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,76; 29,11</t>
+          <t>0; 1,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,74; 35,75</t>
+          <t>0; 1,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,68; 29,34</t>
+          <t>0; 1,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,29; 22,51</t>
+          <t>0; 0,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,15; 30,95</t>
+          <t>0; 1,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>33,78; 46,43</t>
+          <t>0; 0,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,16; 31,73</t>
+          <t>0; 1,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>19,62; 28,27</t>
+          <t>0; 0,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,93; 28,0</t>
+          <t>0; 0,57</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>31,09; 39,39</t>
+          <t>0; 0,52</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>21,65; 28,89</t>
+          <t>0; 0,59</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>18,0; 23,81</t>
+          <t>0; 0,23</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>18,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>33,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>20,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>35,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>41,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>31,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>26,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>37,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>25,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,48; 21,79</t>
+          <t>0; 0,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>29,51; 37,23</t>
+          <t>0; 0,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,38; 24,03</t>
+          <t>0; 0,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,65; 7,66</t>
+          <t>0; 0,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>31,27; 38,99</t>
+          <t>0; 0,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>37,53; 45,38</t>
+          <t>0; 0,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,71; 34,64</t>
+          <t>0; 0,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,81; 51,61</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>24,54; 29,56</t>
+          <t>0; 0,25</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>34,52; 40,26</t>
+          <t>0; 0,24</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>23,5; 28,33</t>
+          <t>0; 0,27</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,13; 36,22</t>
+          <t>0; 0,12</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>19,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>27,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>29,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>21,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>26,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>43,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>41,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>31,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>23,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>35,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>35,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>26,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,71; 22,84</t>
+          <t>0; 0,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>24,15; 30,78</t>
+          <t>0; 0,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>26,48; 33,19</t>
+          <t>0; 0,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16,95; 25,28</t>
+          <t>0; 0,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>23,55; 30,23</t>
+          <t>0; 0,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>40,51; 47,09</t>
+          <t>0; 0,35</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>37,38; 44,57</t>
+          <t>0; 0,36</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>28,62; 34,61</t>
+          <t>0; 0,18</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>20,95; 25,57</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>33,16; 38,37</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>33,24; 38,15</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>23,41; 29,03</t>
+          <t>0; 0,11</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>23,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>30,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>42,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>33,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>25,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>36,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>28,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>17,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>18,83; 21,65</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>27,65; 30,87</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>22,25; 25,32</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>12,06; 14,73</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>28,74; 31,91</t>
+          <t>0; 0,09</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>41,09; 44,64</t>
+          <t>0; 0,08</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>31,76; 35,07</t>
+          <t>0; 0,09</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>17,64; 29,35</t>
+          <t>0; 0,04</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>24,32; 26,43</t>
+          <t>0; 0,05</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>34,98; 37,33</t>
+          <t>0; 0,04</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>27,51; 29,81</t>
+          <t>0; 0,05</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>15,52; 22,13</t>
+          <t>0; 0,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2C_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R-Provincia-trans_dic.xlsx
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,35%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,51%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,23%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,55%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,98%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,71%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,12%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,22%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,29</t>
+          <t>44,97; 61,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,43; 58,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>37,73; 52,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>2,04; 6,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,24</t>
+          <t>58,42; 73,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>60,97; 74,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,99</t>
+          <t>43,73; 58,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>3,17; 6,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>54,33; 65,01</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>54,61; 65,56</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>42,58; 53,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>3,07; 5,77</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,37%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,11%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,17%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,99%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,67%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,92%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,95%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>22,68; 33,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>36,17; 48,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>32,45; 44,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>3,71; 8,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>34,89; 45,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>54,73; 64,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>42,64; 53,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>9,78; 15,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>31,1; 38,56</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>47,63; 55,41</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>39,39; 47,97</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>7,39; 10,8</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,67%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,81%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,76%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,19%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,95%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,35%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,79%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,04%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,21%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>32,57; 46,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>45,09; 58,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,99</t>
+          <t>31,96; 46,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>3,4; 8,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,85</t>
+          <t>42,29; 54,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>52,04; 65,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>36,47; 49,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>4,92; 9,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>39,11; 49,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>50,87; 60,28</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>36,22; 45,88</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>4,88; 8,08</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,37%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,08%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,87%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,79%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,39%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,43%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>39,33; 53,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>41,61; 55,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>27,43; 40,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>5,19; 13,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>43,58; 55,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>56,15; 67,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>42,1; 54,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>5,68; 13,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>43,37; 52,36</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>51,68; 60,55</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>37,5; 47,27</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>6,8; 12,02</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,54%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,66%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,87%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,04%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,17%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,98%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,32%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,55%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,97%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,15%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>20,56; 38,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,44</t>
+          <t>30,46; 47,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>50,65; 67,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>5,03; 12,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,34</t>
+          <t>28,32; 44,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,2</t>
+          <t>49,96; 64,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>52,81; 68,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>2,3; 7,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>27,99; 39,44</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>42,83; 54,62</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>54,37; 66,02</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>3,73; 8,52</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,97%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,97%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,94%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,46%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,62%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,66%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,19%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,81%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,67%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,18</t>
+          <t>35,72; 50,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>42,88; 58,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,15</t>
+          <t>32,54; 48,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>8,14; 15,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>33,37; 48,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>51,84; 65,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,18</t>
+          <t>32,96; 49,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>9,21; 15,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>36,78; 47,31</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>48,83; 59,12</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>35,51; 46,5</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>9,5; 14,36</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,85%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,13%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,13%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,83%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,31%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,71%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,32%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,32%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,83%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,42%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,04%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>29,75; 40,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>56,13; 66,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>36,66; 48,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>1,91; 4,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>46,93; 56,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>59,64; 68,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>45,23; 54,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>3,76; 65,33</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>40,54; 47,79</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>59,15; 66,27</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>42,87; 50,23</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>3,34; 47,07</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,16%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,59%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,07%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,9%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,06%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,51%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,96%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,74%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,39%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,85%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,94%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,93%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>29,03; 37,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>42,01; 51,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>47,82; 56,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>5,37; 18,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>36,72; 45,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>57,24; 65,39</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>54,35; 63,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>24,03; 29,57</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>34,45; 40,55</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>51,68; 57,95</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>52,72; 58,89</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>11,5; 22,82</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,96%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,37%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,2%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,0%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,59%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,26%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,9%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,98%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,1%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,34%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>34,77; 39,3</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>47,28; 51,56</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>42,21; 46,47</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,85; 8,88</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>44,09; 48,17</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>59,67; 63,54</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>49,18; 53,38</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>11,45; 31,24</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>40,25; 43,36</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>54,48; 57,5</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>46,66; 49,84</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>9,41; 20,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2C_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>44,97; 61,38</t>
+          <t>45,44; 62,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>42,43; 58,35</t>
+          <t>43,44; 58,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>37,73; 52,98</t>
+          <t>37,55; 52,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 6,24</t>
+          <t>1,93; 6,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>58,42; 73,36</t>
+          <t>58,64; 73,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>60,97; 74,64</t>
+          <t>60,3; 73,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>43,73; 58,74</t>
+          <t>43,15; 57,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,17; 6,81</t>
+          <t>3,25; 7,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>54,33; 65,01</t>
+          <t>54,34; 65,59</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>54,61; 65,56</t>
+          <t>54,8; 65,04</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>42,58; 53,33</t>
+          <t>42,51; 53,26</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,07; 5,77</t>
+          <t>3,0; 5,77</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22,68; 33,76</t>
+          <t>23,69; 33,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36,17; 48,29</t>
+          <t>35,86; 47,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,45; 44,02</t>
+          <t>32,67; 44,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,71; 8,12</t>
+          <t>3,65; 8,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,89; 45,62</t>
+          <t>35,37; 45,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>54,73; 64,99</t>
+          <t>54,77; 65,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>42,64; 53,98</t>
+          <t>42,24; 54,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,78; 15,46</t>
+          <t>9,75; 15,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>31,1; 38,56</t>
+          <t>31,04; 38,76</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>47,63; 55,41</t>
+          <t>47,54; 55,42</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>39,39; 47,97</t>
+          <t>39,88; 47,92</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,39; 10,8</t>
+          <t>7,34; 10,86</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>32,57; 46,85</t>
+          <t>33,65; 47,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>45,09; 58,86</t>
+          <t>44,91; 58,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>31,96; 46,13</t>
+          <t>31,96; 46,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,4; 8,28</t>
+          <t>3,49; 8,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>42,29; 54,69</t>
+          <t>42,01; 54,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52,04; 65,13</t>
+          <t>52,26; 65,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>36,47; 49,61</t>
+          <t>36,44; 49,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,92; 9,5</t>
+          <t>4,99; 9,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>39,11; 49,11</t>
+          <t>39,6; 49,37</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>50,87; 60,28</t>
+          <t>51,3; 60,43</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>36,22; 45,88</t>
+          <t>36,17; 46,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,88; 8,08</t>
+          <t>4,81; 8,06</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>39,33; 53,48</t>
+          <t>39,75; 53,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,61; 55,71</t>
+          <t>41,54; 55,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,43; 40,93</t>
+          <t>27,44; 42,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,19; 13,65</t>
+          <t>5,36; 13,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,58; 55,66</t>
+          <t>43,08; 55,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>56,15; 67,45</t>
+          <t>56,79; 68,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>42,1; 54,82</t>
+          <t>41,94; 55,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,68; 13,36</t>
+          <t>5,85; 13,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>43,37; 52,36</t>
+          <t>43,2; 52,26</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>51,68; 60,55</t>
+          <t>51,18; 59,92</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>37,5; 47,27</t>
+          <t>38,07; 47,24</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,8; 12,02</t>
+          <t>6,77; 12,17</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,56; 38,35</t>
+          <t>21,54; 38,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>30,46; 47,89</t>
+          <t>30,2; 47,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>50,65; 67,1</t>
+          <t>50,01; 66,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,03; 12,68</t>
+          <t>5,26; 12,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>28,32; 44,54</t>
+          <t>28,12; 44,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>49,96; 64,69</t>
+          <t>49,42; 64,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>52,81; 68,96</t>
+          <t>52,77; 67,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,3; 7,28</t>
+          <t>2,6; 7,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>27,99; 39,44</t>
+          <t>28,04; 40,04</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>42,83; 54,62</t>
+          <t>43,04; 54,51</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>54,37; 66,02</t>
+          <t>54,01; 65,56</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,73; 8,52</t>
+          <t>3,8; 8,24</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>35,72; 50,55</t>
+          <t>35,89; 50,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>42,88; 58,25</t>
+          <t>41,51; 57,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>32,54; 48,33</t>
+          <t>32,71; 47,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,14; 15,33</t>
+          <t>8,03; 14,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>33,37; 48,14</t>
+          <t>32,9; 47,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>51,84; 65,27</t>
+          <t>50,43; 64,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>32,96; 49,18</t>
+          <t>34,05; 49,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,21; 15,75</t>
+          <t>9,07; 16,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>36,78; 47,31</t>
+          <t>36,46; 46,95</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>48,83; 59,12</t>
+          <t>48,51; 59,13</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>35,51; 46,5</t>
+          <t>35,55; 46,21</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,5; 14,36</t>
+          <t>9,3; 14,41</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>29,75; 40,11</t>
+          <t>30,03; 40,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>56,13; 66,29</t>
+          <t>55,96; 65,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>36,66; 48,29</t>
+          <t>37,03; 47,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,88</t>
+          <t>1,87; 5,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>46,93; 56,38</t>
+          <t>47,37; 57,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>59,64; 68,76</t>
+          <t>59,65; 68,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>45,23; 54,52</t>
+          <t>44,84; 55,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,76; 65,33</t>
+          <t>3,81; 58,71</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>40,54; 47,79</t>
+          <t>40,75; 47,98</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>59,15; 66,27</t>
+          <t>59,32; 66,31</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>42,87; 50,23</t>
+          <t>42,71; 49,91</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,34; 47,07</t>
+          <t>3,27; 48,15</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>29,03; 37,6</t>
+          <t>28,69; 37,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>42,01; 51,62</t>
+          <t>41,95; 51,45</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>47,82; 56,56</t>
+          <t>47,61; 56,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,37; 18,48</t>
+          <t>5,91; 18,54</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>36,72; 45,49</t>
+          <t>36,96; 44,88</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>57,24; 65,39</t>
+          <t>57,4; 65,49</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>54,35; 63,34</t>
+          <t>54,66; 62,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>24,03; 29,57</t>
+          <t>24,06; 29,91</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>34,45; 40,55</t>
+          <t>34,47; 40,55</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>51,68; 57,95</t>
+          <t>51,88; 58,05</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>52,72; 58,89</t>
+          <t>52,79; 59,13</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>11,5; 22,82</t>
+          <t>11,92; 22,93</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>34,77; 39,3</t>
+          <t>34,72; 39,18</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>47,28; 51,56</t>
+          <t>47,11; 51,56</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>42,21; 46,47</t>
+          <t>41,86; 46,42</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,85; 8,88</t>
+          <t>6,1; 8,84</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>44,09; 48,17</t>
+          <t>43,93; 47,96</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>59,67; 63,54</t>
+          <t>59,71; 63,48</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>49,18; 53,38</t>
+          <t>48,92; 53,39</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>11,45; 31,24</t>
+          <t>11,42; 32,69</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>40,25; 43,36</t>
+          <t>40,34; 43,43</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>54,48; 57,5</t>
+          <t>54,38; 57,44</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>46,66; 49,84</t>
+          <t>46,46; 49,6</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>9,41; 20,38</t>
+          <t>9,46; 21,65</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con al menos un miembro que requiere cuidados habituales por la persona entrevistada</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>78385</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>89766</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>78449</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>11419</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>109339</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>140966</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>101374</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>13940</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>187724</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>230732</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>179823</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>25360</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>66759; 91343</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>77210; 103856</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>65135; 91474</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6016; 19717</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>97387; 122344</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>125827; 154262</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>86402; 114939</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9409; 20492</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>170077; 205280</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>211763; 251305</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>158876; 199052</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>18003; 34676</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>81115</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>133403</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>101468</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>28666</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>142874</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>215479</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>155256</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>63856</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>223989</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>348882</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>256725</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>92521</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>67750; 96937</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>113622; 149667</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>85677; 117741</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>18922; 42593</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>125286; 161939</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>196312; 233189</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>136143; 174403</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>50213; 79222</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>198734; 248165</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>320991; 374199</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>233091; 280123</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>75878; 112214</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>75440</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>106314</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>68858</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>17142</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>109131</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>141824</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>91130</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>24151</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>184570</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>248138</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>159988</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>41293</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>63981; 90137</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>92150; 120150</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>56781; 82026</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11019; 26548</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>94949; 124072</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>125210; 156441</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>77318; 105149</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17426; 33981</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>164797; 205444</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>228196; 268789</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>140996; 179594</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>31977; 53615</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>92320</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>117388</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>65261</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>26815</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>120387</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>181866</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>124275</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>47556</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>212707</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>299254</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>189536</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>74371</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>79151; 107420</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>101251; 134881</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>52560; 80434</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>16739; 42106</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>105648; 136812</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>166204; 200131</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>107221; 140912</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>27830; 64646</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>191945; 232210</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>274543; 321419</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>170237; 211260</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>53361; 95946</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>31925</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>56081</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>78766</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>14546</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>53955</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>95217</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>88738</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>12362</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>85880</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>151298</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>167504</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>26908</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>23286; 41850</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>43806; 69365</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>66910; 88540</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>9398; 23128</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>42097; 66126</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>82300; 107819</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>76793; 98814</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>6726; 19193</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>72285; 103216</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>134107; 169860</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>150872; 183119</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>16639; 36054</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>69773</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>87933</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>64398</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>30140</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>72221</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>118159</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>71470</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>31309</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>141994</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>206092</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>135868</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>61449</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>58268; 82622</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>73036; 100395</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>52742; 77339</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>21642; 40025</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>58721; 85306</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>103051; 131353</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>58463; 85520</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>23306; 41494</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>124285; 160018</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>184487; 224870</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>118348; 153837</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>48997; 75878</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>122506</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>242659</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>143345</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>18990</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>229589</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>293639</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>220464</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>232055</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>352096</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>536298</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>363810</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>251044</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>105545; 141581</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>222121; 259559</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>126001; 162804</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>11676; 31821</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>209798; 252638</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>272369; 314767</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>198851; 244515</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>32393; 498583</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>323748; 381183</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>506290; 565987</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>334777; 391165</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>48244; 709581</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>154540</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>221698</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>237865</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>119798</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>221203</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>362875</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>344266</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>191945</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>375743</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>584573</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>582130</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>311743</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>133714; 176059</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>199617; 244823</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>217488; 259485</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>54915; 172151</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>199092; 241764</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>338646; 386343</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>319137; 367409</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>172686; 214676</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>346324; 407419</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>552931; 618750</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>549349; 615329</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>196328; 377602</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>997</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>793</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>1439</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>1166</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>626</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1697</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>2436</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>1959</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>917</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>706004</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>1055242</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>838411</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>267516</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>1058698</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>1550023</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>1196973</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>617174</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1764702</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>2605265</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>2035384</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>884690</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>663183; 748468</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1006826; 1101905</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>794075; 880538</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>211217; 305947</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>1010970; 1103813</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>1502778; 1597594</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>1142237; 1246758</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>423866; 1213729</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1698885; 1829024</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>2530825; 2673145</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>1966355; 2099250</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>678344; 1552438</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>